--- a/output/promoción social.xlsx
+++ b/output/promoción social.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -741,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ93"/>
+  <dimension ref="A1:AM93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,7 +759,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -859,10 +868,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -961,15 +979,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>124476</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1068,15 +1095,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>190000</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1175,15 +1211,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>107142</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1282,15 +1327,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>44918</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1389,15 +1443,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>399759</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1496,15 +1559,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>251059</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1603,15 +1675,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>153333</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1710,15 +1791,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1817,15 +1907,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>316915</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1924,15 +2023,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>280000</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2031,15 +2139,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>29511</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2138,15 +2255,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>149373</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2245,21 +2371,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>153508</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2352,15 +2487,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>72641</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2459,15 +2603,24 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>361964</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2566,15 +2719,24 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2673,15 +2835,24 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>28377</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2780,15 +2951,24 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>1740241</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2887,15 +3067,24 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>485821</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2994,15 +3183,24 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>425681</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3101,15 +3299,24 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>482160</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3208,15 +3415,24 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>99633</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3315,15 +3531,24 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>219213</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3422,15 +3647,24 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>189883</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3529,15 +3763,24 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>350829</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3636,15 +3879,24 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>24500</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3743,15 +3995,24 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>208333</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3850,15 +4111,24 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>1081112</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3957,21 +4227,30 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>416666</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>210000</v>
@@ -4064,15 +4343,24 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>484106</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4171,15 +4459,24 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>3036245</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4278,15 +4575,24 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>232930</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4385,15 +4691,24 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4492,15 +4807,24 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>202433</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4599,15 +4923,24 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4706,15 +5039,24 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>3631</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4813,15 +5155,24 @@
         <v>0</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>50000</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4920,15 +5271,24 @@
         <v>0</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>26000</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5027,15 +5387,24 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>968795</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5134,15 +5503,24 @@
         <v>0</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>322759.5</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5241,15 +5619,24 @@
         <v>0</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>100876.95</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5348,21 +5735,30 @@
         <v>0</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>155618.5</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -5455,15 +5851,24 @@
         <v>0</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>120719</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5562,15 +5967,24 @@
         <v>0</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>232930</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5669,15 +6083,24 @@
         <v>0</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5776,15 +6199,24 @@
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>202433</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5883,15 +6315,24 @@
         <v>0</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5990,15 +6431,24 @@
         <v>0</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>3631</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6097,15 +6547,24 @@
         <v>0</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>50000</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6204,15 +6663,24 @@
         <v>0</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>26000</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6311,15 +6779,24 @@
         <v>0</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>968795</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6418,15 +6895,24 @@
         <v>0</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>322759.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6525,15 +7011,24 @@
         <v>0</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>100876.95</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6632,21 +7127,30 @@
         <v>0</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>155618.5</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -6739,15 +7243,24 @@
         <v>0</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>120719</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6846,15 +7359,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>113826.5</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6953,15 +7475,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>300000</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7060,15 +7591,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>75000</v>
       </c>
     </row>
-    <row r="60" spans="1:36">
+    <row r="60" spans="1:39">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7167,15 +7707,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI60">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>1</v>
+      </c>
+      <c r="AM60">
         <v>107500</v>
       </c>
     </row>
-    <row r="61" spans="1:36">
+    <row r="61" spans="1:39">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7274,15 +7823,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI61">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>1</v>
+      </c>
+      <c r="AL61">
+        <v>1</v>
+      </c>
+      <c r="AM61">
         <v>69290</v>
       </c>
     </row>
-    <row r="62" spans="1:36">
+    <row r="62" spans="1:39">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7381,15 +7939,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI62">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>1</v>
+      </c>
+      <c r="AM62">
         <v>80023.5</v>
       </c>
     </row>
-    <row r="63" spans="1:36">
+    <row r="63" spans="1:39">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -7488,15 +8055,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI63">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>1</v>
+      </c>
+      <c r="AM63">
         <v>476977</v>
       </c>
     </row>
-    <row r="64" spans="1:36">
+    <row r="64" spans="1:39">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7595,15 +8171,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI64">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>1</v>
+      </c>
+      <c r="AM64">
         <v>12500</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:39">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7702,15 +8287,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI65">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>1</v>
+      </c>
+      <c r="AM65">
         <v>404312.5</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:39">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7809,15 +8403,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI66">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>1</v>
+      </c>
+      <c r="AM66">
         <v>55000</v>
       </c>
     </row>
-    <row r="67" spans="1:36">
+    <row r="67" spans="1:39">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7916,15 +8519,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI67">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>1</v>
+      </c>
+      <c r="AL67">
+        <v>1</v>
+      </c>
+      <c r="AM67">
         <v>3000</v>
       </c>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:39">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8023,15 +8635,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI68">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>1</v>
+      </c>
+      <c r="AL68">
+        <v>1</v>
+      </c>
+      <c r="AM68">
         <v>51425</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:39">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8130,21 +8751,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI69">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>1</v>
+      </c>
+      <c r="AL69">
+        <v>1</v>
+      </c>
+      <c r="AM69">
         <v>45000</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:39">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -8237,15 +8867,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI70">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>1</v>
+      </c>
+      <c r="AM70">
         <v>75000</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:39">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8344,15 +8983,24 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI71">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>1</v>
+      </c>
+      <c r="AM71">
         <v>614415.5</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:39">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8451,15 +9099,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI72">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ72">
+        <v>0</v>
+      </c>
+      <c r="AK72">
+        <v>1</v>
+      </c>
+      <c r="AL72">
+        <v>1</v>
+      </c>
+      <c r="AM72">
         <v>113826.5</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:39">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8558,15 +9215,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI73">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ73">
+        <v>0</v>
+      </c>
+      <c r="AK73">
+        <v>0</v>
+      </c>
+      <c r="AL73">
+        <v>1</v>
+      </c>
+      <c r="AM73">
         <v>300000</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:39">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8665,15 +9331,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI74">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74">
+        <v>0</v>
+      </c>
+      <c r="AL74">
+        <v>1</v>
+      </c>
+      <c r="AM74">
         <v>75000</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:39">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -8772,15 +9447,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI75">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75">
+        <v>0</v>
+      </c>
+      <c r="AL75">
+        <v>1</v>
+      </c>
+      <c r="AM75">
         <v>107500</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:39">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8879,15 +9563,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI76">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ76">
+        <v>0</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>1</v>
+      </c>
+      <c r="AM76">
         <v>69290</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:39">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -8986,15 +9679,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI77">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ77">
+        <v>0</v>
+      </c>
+      <c r="AK77">
+        <v>0</v>
+      </c>
+      <c r="AL77">
+        <v>1</v>
+      </c>
+      <c r="AM77">
         <v>80023.5</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:39">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9093,15 +9795,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI78">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ78">
+        <v>0</v>
+      </c>
+      <c r="AK78">
+        <v>0</v>
+      </c>
+      <c r="AL78">
+        <v>1</v>
+      </c>
+      <c r="AM78">
         <v>476977</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:39">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9200,15 +9911,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI79">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ79">
+        <v>0</v>
+      </c>
+      <c r="AK79">
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <v>1</v>
+      </c>
+      <c r="AM79">
         <v>12500</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:39">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -9307,15 +10027,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI80">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ80">
+        <v>0</v>
+      </c>
+      <c r="AK80">
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <v>1</v>
+      </c>
+      <c r="AM80">
         <v>404312.5</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:39">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -9414,15 +10143,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI81">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ81">
+        <v>0</v>
+      </c>
+      <c r="AK81">
+        <v>0</v>
+      </c>
+      <c r="AL81">
+        <v>1</v>
+      </c>
+      <c r="AM81">
         <v>55000</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:39">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -9521,15 +10259,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI82">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ82">
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>1</v>
+      </c>
+      <c r="AM82">
         <v>3000</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:39">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -9628,15 +10375,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI83">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ83">
+        <v>0</v>
+      </c>
+      <c r="AK83">
+        <v>1</v>
+      </c>
+      <c r="AL83">
+        <v>1</v>
+      </c>
+      <c r="AM83">
         <v>51425</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:39">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -9735,21 +10491,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI84">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ84">
+        <v>0</v>
+      </c>
+      <c r="AK84">
+        <v>1</v>
+      </c>
+      <c r="AL84">
+        <v>1</v>
+      </c>
+      <c r="AM84">
         <v>45000</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:39">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -9842,15 +10607,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI85">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ85">
+        <v>0</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>1</v>
+      </c>
+      <c r="AM85">
         <v>75000</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:39">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -9949,15 +10723,24 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI86">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ86">
+        <v>0</v>
+      </c>
+      <c r="AK86">
+        <v>0</v>
+      </c>
+      <c r="AL86">
+        <v>1</v>
+      </c>
+      <c r="AM86">
         <v>614415.5</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:39">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10056,15 +10839,24 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ87">
+        <v>0</v>
+      </c>
+      <c r="AK87">
+        <v>0</v>
+      </c>
+      <c r="AL87">
+        <v>1</v>
+      </c>
+      <c r="AM87">
         <v>129531</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:39">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10163,15 +10955,24 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ88">
+        <v>0</v>
+      </c>
+      <c r="AK88">
+        <v>0</v>
+      </c>
+      <c r="AL88">
+        <v>1</v>
+      </c>
+      <c r="AM88">
         <v>176038</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:39">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -10270,15 +11071,24 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ89">
+        <v>0</v>
+      </c>
+      <c r="AK89">
+        <v>0</v>
+      </c>
+      <c r="AL89">
+        <v>1</v>
+      </c>
+      <c r="AM89">
         <v>35344</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:39">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -10377,15 +11187,24 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ90">
+        <v>0</v>
+      </c>
+      <c r="AK90">
+        <v>0</v>
+      </c>
+      <c r="AL90">
+        <v>1</v>
+      </c>
+      <c r="AM90">
         <v>100000</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:39">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -10484,15 +11303,24 @@
         <v>0</v>
       </c>
       <c r="AI91">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ91">
+        <v>0</v>
+      </c>
+      <c r="AK91">
+        <v>0</v>
+      </c>
+      <c r="AL91">
+        <v>1</v>
+      </c>
+      <c r="AM91">
         <v>15553</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:39">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -10591,21 +11419,30 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ92">
+        <v>0</v>
+      </c>
+      <c r="AK92">
+        <v>0</v>
+      </c>
+      <c r="AL92">
+        <v>1</v>
+      </c>
+      <c r="AM92">
         <v>893188</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:39">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -10698,9 +11535,18 @@
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>1</v>
+        <v>1987</v>
       </c>
       <c r="AJ93">
+        <v>0</v>
+      </c>
+      <c r="AK93">
+        <v>1</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
+      </c>
+      <c r="AM93">
         <v>9000</v>
       </c>
     </row>

--- a/output/promoción social.xlsx
+++ b/output/promoción social.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM93"/>
+  <dimension ref="A1:AO93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,7 +765,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +883,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -979,24 +991,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI2">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ2">
         <v>1987</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>124476</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1095,24 +1113,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI3">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ3">
         <v>1987</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>190000</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1211,24 +1235,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI4">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ4">
         <v>1987</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>107142</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1327,24 +1357,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI5">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ5">
         <v>1987</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>44918</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1443,24 +1479,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI6">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ6">
         <v>1987</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6">
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>399759</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1559,24 +1601,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI7">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ7">
         <v>1987</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>251059</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1675,24 +1723,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI8">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ8">
         <v>1987</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>153333</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1791,24 +1845,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI9">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ9">
         <v>1987</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>100000</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1907,24 +1967,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI10">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ10">
         <v>1987</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>316915</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2023,24 +2089,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI11">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ11">
         <v>1987</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>280000</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2139,24 +2211,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI12">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ12">
         <v>1987</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>29511</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2255,24 +2333,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI13">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ13">
         <v>1987</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>149373</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2371,30 +2455,36 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI14">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ14">
         <v>1987</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>153508</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2487,24 +2577,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI15">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ15">
         <v>1987</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>72641</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2603,24 +2699,30 @@
         <v>0.1297040213245379</v>
       </c>
       <c r="AI16">
+        <v>0.5293480028742179</v>
+      </c>
+      <c r="AJ16">
         <v>1987</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>361964</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2719,24 +2821,30 @@
         <v>0</v>
       </c>
       <c r="AI17">
+        <v>0.7639060068227822</v>
+      </c>
+      <c r="AJ17">
         <v>1987</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>500000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2835,24 +2943,30 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ18">
         <v>1987</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>28377</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2951,24 +3065,30 @@
         <v>0</v>
       </c>
       <c r="AI19">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ19">
         <v>1987</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>1740241</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3067,24 +3187,30 @@
         <v>0</v>
       </c>
       <c r="AI20">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ20">
         <v>1987</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>485821</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3183,24 +3309,30 @@
         <v>0</v>
       </c>
       <c r="AI21">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ21">
         <v>1987</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>425681</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3299,24 +3431,30 @@
         <v>0</v>
       </c>
       <c r="AI22">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ22">
         <v>1987</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>482160</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3415,24 +3553,30 @@
         <v>0</v>
       </c>
       <c r="AI23">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ23">
         <v>1987</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>99633</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3531,24 +3675,30 @@
         <v>0</v>
       </c>
       <c r="AI24">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ24">
         <v>1987</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>219213</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3647,24 +3797,30 @@
         <v>0</v>
       </c>
       <c r="AI25">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ25">
         <v>1987</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>189883</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3763,24 +3919,30 @@
         <v>0</v>
       </c>
       <c r="AI26">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ26">
         <v>1987</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>350829</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3879,24 +4041,30 @@
         <v>0</v>
       </c>
       <c r="AI27">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ27">
         <v>1987</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>24500</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3995,24 +4163,30 @@
         <v>0</v>
       </c>
       <c r="AI28">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ28">
         <v>1987</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>208333</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4111,24 +4285,30 @@
         <v>0</v>
       </c>
       <c r="AI29">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ29">
         <v>1987</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>1081112</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4227,30 +4407,36 @@
         <v>0</v>
       </c>
       <c r="AI30">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ30">
         <v>1987</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>416666</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>210000</v>
@@ -4343,24 +4529,30 @@
         <v>0</v>
       </c>
       <c r="AI31">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ31">
         <v>1987</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>484106</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4459,24 +4651,30 @@
         <v>0</v>
       </c>
       <c r="AI32">
+        <v>0.5601811351824216</v>
+      </c>
+      <c r="AJ32">
         <v>1987</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>3036245</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4575,24 +4773,30 @@
         <v>0</v>
       </c>
       <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
         <v>1987</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>232930</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4691,24 +4895,30 @@
         <v>0</v>
       </c>
       <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
         <v>1987</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>2500</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4807,24 +5017,30 @@
         <v>0</v>
       </c>
       <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
         <v>1987</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
         <v>0</v>
       </c>
       <c r="AL35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>202433</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4923,24 +5139,30 @@
         <v>0</v>
       </c>
       <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
         <v>1987</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
         <v>0</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>10000</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5039,24 +5261,30 @@
         <v>0</v>
       </c>
       <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
         <v>1987</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
         <v>0</v>
       </c>
       <c r="AL37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>3631</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5155,24 +5383,30 @@
         <v>0</v>
       </c>
       <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
         <v>1987</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>50000</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5271,24 +5505,30 @@
         <v>0</v>
       </c>
       <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
         <v>1987</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>26000</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5387,24 +5627,30 @@
         <v>0</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1987</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
         <v>0</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>1</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>968795</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5503,24 +5749,30 @@
         <v>0</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1987</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
         <v>0</v>
       </c>
       <c r="AL41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41">
+        <v>1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>322759.5</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5619,24 +5871,30 @@
         <v>0</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1987</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
         <v>0</v>
       </c>
       <c r="AL42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>100876.95</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5735,30 +5993,36 @@
         <v>0</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1987</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>155618.5</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -5851,24 +6115,30 @@
         <v>0</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1987</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
         <v>0</v>
       </c>
       <c r="AL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>120719</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5967,24 +6237,30 @@
         <v>0</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1987</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
         <v>0</v>
       </c>
       <c r="AL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>232930</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6083,24 +6359,30 @@
         <v>0</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1987</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>2500</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6199,24 +6481,30 @@
         <v>0</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1987</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
         <v>0</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>202433</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6315,24 +6603,30 @@
         <v>0</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1987</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
         <v>0</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>10000</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6431,24 +6725,30 @@
         <v>0</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1987</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
         <v>0</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>3631</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6547,24 +6847,30 @@
         <v>0</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1987</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>50000</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6663,24 +6969,30 @@
         <v>0</v>
       </c>
       <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
         <v>1987</v>
       </c>
-      <c r="AJ51">
-        <v>0</v>
-      </c>
       <c r="AK51">
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>26000</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6779,24 +7091,30 @@
         <v>0</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1987</v>
       </c>
-      <c r="AJ52">
-        <v>0</v>
-      </c>
       <c r="AK52">
         <v>0</v>
       </c>
       <c r="AL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52">
+        <v>1</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>968795</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6895,24 +7213,30 @@
         <v>0</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1987</v>
       </c>
-      <c r="AJ53">
-        <v>0</v>
-      </c>
       <c r="AK53">
         <v>0</v>
       </c>
       <c r="AL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53">
+        <v>1</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>322759.5</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7011,24 +7335,30 @@
         <v>0</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1987</v>
       </c>
-      <c r="AJ54">
-        <v>0</v>
-      </c>
       <c r="AK54">
         <v>0</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>100876.95</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7127,30 +7457,36 @@
         <v>0</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1987</v>
       </c>
-      <c r="AJ55">
-        <v>0</v>
-      </c>
       <c r="AK55">
         <v>0</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>1</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>155618.5</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7243,24 +7579,30 @@
         <v>0</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1987</v>
       </c>
-      <c r="AJ56">
-        <v>0</v>
-      </c>
       <c r="AK56">
         <v>0</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>120719</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7359,24 +7701,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI57">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ57">
         <v>1987</v>
       </c>
-      <c r="AJ57">
-        <v>0</v>
-      </c>
       <c r="AK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL57">
         <v>1</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>113826.5</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7475,24 +7823,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI58">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ58">
         <v>1987</v>
       </c>
-      <c r="AJ58">
-        <v>0</v>
-      </c>
       <c r="AK58">
         <v>0</v>
       </c>
       <c r="AL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>300000</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7591,24 +7945,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI59">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ59">
         <v>1987</v>
       </c>
-      <c r="AJ59">
-        <v>0</v>
-      </c>
       <c r="AK59">
         <v>0</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>75000</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -7707,24 +8067,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI60">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ60">
         <v>1987</v>
       </c>
-      <c r="AJ60">
-        <v>0</v>
-      </c>
       <c r="AK60">
         <v>0</v>
       </c>
       <c r="AL60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
         <v>107500</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7823,24 +8189,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI61">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ61">
         <v>1987</v>
       </c>
-      <c r="AJ61">
-        <v>0</v>
-      </c>
       <c r="AK61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61">
         <v>1</v>
       </c>
       <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
         <v>69290</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7939,24 +8311,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI62">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ62">
         <v>1987</v>
       </c>
-      <c r="AJ62">
-        <v>0</v>
-      </c>
       <c r="AK62">
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
         <v>80023.5</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -8055,24 +8433,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI63">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ63">
         <v>1987</v>
       </c>
-      <c r="AJ63">
-        <v>0</v>
-      </c>
       <c r="AK63">
         <v>0</v>
       </c>
       <c r="AL63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63">
+        <v>1</v>
+      </c>
+      <c r="AN63">
+        <v>1</v>
+      </c>
+      <c r="AO63">
         <v>476977</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -8171,24 +8555,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI64">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ64">
         <v>1987</v>
       </c>
-      <c r="AJ64">
-        <v>0</v>
-      </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>1</v>
+      </c>
+      <c r="AO64">
         <v>12500</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -8287,24 +8677,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI65">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ65">
         <v>1987</v>
       </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
       <c r="AK65">
         <v>0</v>
       </c>
       <c r="AL65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65">
+        <v>1</v>
+      </c>
+      <c r="AN65">
+        <v>1</v>
+      </c>
+      <c r="AO65">
         <v>404312.5</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8403,24 +8799,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI66">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ66">
         <v>1987</v>
       </c>
-      <c r="AJ66">
-        <v>0</v>
-      </c>
       <c r="AK66">
         <v>0</v>
       </c>
       <c r="AL66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>1</v>
+      </c>
+      <c r="AO66">
         <v>55000</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -8519,24 +8921,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI67">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ67">
         <v>1987</v>
       </c>
-      <c r="AJ67">
-        <v>0</v>
-      </c>
       <c r="AK67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL67">
         <v>1</v>
       </c>
       <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>1</v>
+      </c>
+      <c r="AO67">
         <v>3000</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -8635,24 +9043,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI68">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ68">
         <v>1987</v>
       </c>
-      <c r="AJ68">
-        <v>0</v>
-      </c>
       <c r="AK68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL68">
         <v>1</v>
       </c>
       <c r="AM68">
+        <v>1</v>
+      </c>
+      <c r="AN68">
+        <v>1</v>
+      </c>
+      <c r="AO68">
         <v>51425</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -8751,30 +9165,36 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI69">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ69">
         <v>1987</v>
       </c>
-      <c r="AJ69">
-        <v>0</v>
-      </c>
       <c r="AK69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL69">
         <v>1</v>
       </c>
       <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>1</v>
+      </c>
+      <c r="AO69">
         <v>45000</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -8867,24 +9287,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI70">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ70">
         <v>1987</v>
       </c>
-      <c r="AJ70">
-        <v>0</v>
-      </c>
       <c r="AK70">
         <v>0</v>
       </c>
       <c r="AL70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>1</v>
+      </c>
+      <c r="AO70">
         <v>75000</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8983,24 +9409,30 @@
         <v>0.2106672221833433</v>
       </c>
       <c r="AI71">
+        <v>0.7893327778166567</v>
+      </c>
+      <c r="AJ71">
         <v>1987</v>
       </c>
-      <c r="AJ71">
-        <v>0</v>
-      </c>
       <c r="AK71">
         <v>0</v>
       </c>
       <c r="AL71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM71">
+        <v>1</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
         <v>614415.5</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -9099,24 +9531,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI72">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ72">
         <v>1987</v>
       </c>
-      <c r="AJ72">
-        <v>0</v>
-      </c>
       <c r="AK72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL72">
         <v>1</v>
       </c>
       <c r="AM72">
+        <v>0</v>
+      </c>
+      <c r="AN72">
+        <v>1</v>
+      </c>
+      <c r="AO72">
         <v>113826.5</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -9215,24 +9653,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI73">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ73">
         <v>1987</v>
       </c>
-      <c r="AJ73">
-        <v>0</v>
-      </c>
       <c r="AK73">
         <v>0</v>
       </c>
       <c r="AL73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM73">
+        <v>0</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
         <v>300000</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -9331,24 +9775,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI74">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ74">
         <v>1987</v>
       </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
       <c r="AK74">
         <v>0</v>
       </c>
       <c r="AL74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM74">
+        <v>0</v>
+      </c>
+      <c r="AN74">
+        <v>1</v>
+      </c>
+      <c r="AO74">
         <v>75000</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -9447,24 +9897,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI75">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ75">
         <v>1987</v>
       </c>
-      <c r="AJ75">
-        <v>0</v>
-      </c>
       <c r="AK75">
         <v>0</v>
       </c>
       <c r="AL75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>1</v>
+      </c>
+      <c r="AO75">
         <v>107500</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -9563,24 +10019,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI76">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ76">
         <v>1987</v>
       </c>
-      <c r="AJ76">
-        <v>0</v>
-      </c>
       <c r="AK76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL76">
         <v>1</v>
       </c>
       <c r="AM76">
+        <v>0</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
         <v>69290</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -9679,24 +10141,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI77">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ77">
         <v>1987</v>
       </c>
-      <c r="AJ77">
-        <v>0</v>
-      </c>
       <c r="AK77">
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM77">
+        <v>0</v>
+      </c>
+      <c r="AN77">
+        <v>1</v>
+      </c>
+      <c r="AO77">
         <v>80023.5</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -9795,24 +10263,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI78">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ78">
         <v>1987</v>
       </c>
-      <c r="AJ78">
-        <v>0</v>
-      </c>
       <c r="AK78">
         <v>0</v>
       </c>
       <c r="AL78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM78">
+        <v>1</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
         <v>476977</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -9911,24 +10385,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI79">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ79">
         <v>1987</v>
       </c>
-      <c r="AJ79">
-        <v>0</v>
-      </c>
       <c r="AK79">
         <v>0</v>
       </c>
       <c r="AL79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>1</v>
+      </c>
+      <c r="AO79">
         <v>12500</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -10027,24 +10507,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI80">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ80">
         <v>1987</v>
       </c>
-      <c r="AJ80">
-        <v>0</v>
-      </c>
       <c r="AK80">
         <v>0</v>
       </c>
       <c r="AL80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM80">
+        <v>1</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
         <v>404312.5</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -10143,24 +10629,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI81">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ81">
         <v>1987</v>
       </c>
-      <c r="AJ81">
-        <v>0</v>
-      </c>
       <c r="AK81">
         <v>0</v>
       </c>
       <c r="AL81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM81">
+        <v>0</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
         <v>55000</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -10259,24 +10751,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI82">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ82">
         <v>1987</v>
       </c>
-      <c r="AJ82">
-        <v>0</v>
-      </c>
       <c r="AK82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL82">
         <v>1</v>
       </c>
       <c r="AM82">
+        <v>0</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
         <v>3000</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -10375,24 +10873,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI83">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ83">
         <v>1987</v>
       </c>
-      <c r="AJ83">
-        <v>0</v>
-      </c>
       <c r="AK83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL83">
         <v>1</v>
       </c>
       <c r="AM83">
+        <v>1</v>
+      </c>
+      <c r="AN83">
+        <v>1</v>
+      </c>
+      <c r="AO83">
         <v>51425</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -10491,30 +10995,36 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI84">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ84">
         <v>1987</v>
       </c>
-      <c r="AJ84">
-        <v>0</v>
-      </c>
       <c r="AK84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL84">
         <v>1</v>
       </c>
       <c r="AM84">
+        <v>0</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
         <v>45000</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -10607,24 +11117,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI85">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ85">
         <v>1987</v>
       </c>
-      <c r="AJ85">
-        <v>0</v>
-      </c>
       <c r="AK85">
         <v>0</v>
       </c>
       <c r="AL85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM85">
+        <v>0</v>
+      </c>
+      <c r="AN85">
+        <v>1</v>
+      </c>
+      <c r="AO85">
         <v>75000</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -10723,24 +11239,30 @@
         <v>0.7394633713733779</v>
       </c>
       <c r="AI86">
+        <v>0.2605366286266221</v>
+      </c>
+      <c r="AJ86">
         <v>1987</v>
       </c>
-      <c r="AJ86">
-        <v>0</v>
-      </c>
       <c r="AK86">
         <v>0</v>
       </c>
       <c r="AL86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM86">
+        <v>1</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
         <v>614415.5</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -10839,24 +11361,30 @@
         <v>0</v>
       </c>
       <c r="AI87">
+        <v>0</v>
+      </c>
+      <c r="AJ87">
         <v>1987</v>
       </c>
-      <c r="AJ87">
-        <v>0</v>
-      </c>
       <c r="AK87">
         <v>0</v>
       </c>
       <c r="AL87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM87">
+        <v>0</v>
+      </c>
+      <c r="AN87">
+        <v>1</v>
+      </c>
+      <c r="AO87">
         <v>129531</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -10955,24 +11483,30 @@
         <v>0</v>
       </c>
       <c r="AI88">
+        <v>0</v>
+      </c>
+      <c r="AJ88">
         <v>1987</v>
       </c>
-      <c r="AJ88">
-        <v>0</v>
-      </c>
       <c r="AK88">
         <v>0</v>
       </c>
       <c r="AL88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM88">
+        <v>0</v>
+      </c>
+      <c r="AN88">
+        <v>1</v>
+      </c>
+      <c r="AO88">
         <v>176038</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -11071,24 +11605,30 @@
         <v>0</v>
       </c>
       <c r="AI89">
+        <v>0</v>
+      </c>
+      <c r="AJ89">
         <v>1987</v>
       </c>
-      <c r="AJ89">
-        <v>0</v>
-      </c>
       <c r="AK89">
         <v>0</v>
       </c>
       <c r="AL89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM89">
+        <v>1</v>
+      </c>
+      <c r="AN89">
+        <v>1</v>
+      </c>
+      <c r="AO89">
         <v>35344</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -11187,24 +11727,30 @@
         <v>0</v>
       </c>
       <c r="AI90">
+        <v>0</v>
+      </c>
+      <c r="AJ90">
         <v>1987</v>
       </c>
-      <c r="AJ90">
-        <v>0</v>
-      </c>
       <c r="AK90">
         <v>0</v>
       </c>
       <c r="AL90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM90">
+        <v>0</v>
+      </c>
+      <c r="AN90">
+        <v>1</v>
+      </c>
+      <c r="AO90">
         <v>100000</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -11303,24 +11849,30 @@
         <v>0</v>
       </c>
       <c r="AI91">
+        <v>0</v>
+      </c>
+      <c r="AJ91">
         <v>1987</v>
       </c>
-      <c r="AJ91">
-        <v>0</v>
-      </c>
       <c r="AK91">
         <v>0</v>
       </c>
       <c r="AL91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>1</v>
+      </c>
+      <c r="AO91">
         <v>15553</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11419,30 +11971,36 @@
         <v>0</v>
       </c>
       <c r="AI92">
+        <v>0</v>
+      </c>
+      <c r="AJ92">
         <v>1987</v>
       </c>
-      <c r="AJ92">
-        <v>0</v>
-      </c>
       <c r="AK92">
         <v>0</v>
       </c>
       <c r="AL92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM92">
+        <v>1</v>
+      </c>
+      <c r="AN92">
+        <v>1</v>
+      </c>
+      <c r="AO92">
         <v>893188</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -11535,18 +12093,24 @@
         <v>0</v>
       </c>
       <c r="AI93">
+        <v>0</v>
+      </c>
+      <c r="AJ93">
         <v>1987</v>
       </c>
-      <c r="AJ93">
-        <v>0</v>
-      </c>
       <c r="AK93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL93">
         <v>1</v>
       </c>
       <c r="AM93">
+        <v>0</v>
+      </c>
+      <c r="AN93">
+        <v>1</v>
+      </c>
+      <c r="AO93">
         <v>9000</v>
       </c>
     </row>

--- a/output/promoción social.xlsx
+++ b/output/promoción social.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>2009_siria</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2009_palestina</t>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2120</v>
+        <v>2565.769164761619</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1020,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2880</v>
+        <v>2771.04675450926</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1142,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6520</v>
+        <v>6923.341809163824</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1264,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2620</v>
+        <v>2870.311589353206</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1386,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1508,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1630,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3450</v>
+        <v>3972.630273980753</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1752,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1874,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>700</v>
+        <v>752.7964806390332</v>
       </c>
       <c r="D10">
         <v>308530</v>
@@ -1996,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1010</v>
+        <v>1250.795760575873</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2118,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>27270</v>
+        <v>29601.42505091757</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2240,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3350</v>
+        <v>3799.441100542036</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2362,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6880</v>
+        <v>7397.509860835168</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2483,8 +2480,8 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
-        <v>55</v>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2600,7 +2597,7 @@
     </row>
     <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2722,7 +2719,7 @@
     </row>
     <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2844,13 +2841,13 @@
     </row>
     <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>500</v>
+        <v>492.3430015592067</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2966,7 +2963,7 @@
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3088,13 +3085,13 @@
     </row>
     <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2560</v>
+        <v>2635.191563620458</v>
       </c>
       <c r="D20">
         <v>961000</v>
@@ -3210,13 +3207,13 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3332,13 +3329,13 @@
     </row>
     <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3454,13 +3451,13 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3562,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -3576,13 +3573,13 @@
     </row>
     <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3698,13 +3695,13 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4480</v>
+        <v>4479.398934239905</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3820,13 +3817,13 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3942,13 +3939,13 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1360</v>
+        <v>1410.426304742003</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -4064,13 +4061,13 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1370</v>
+        <v>1385.890384668919</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4186,13 +4183,13 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3540</v>
+        <v>3587.183047009039</v>
       </c>
       <c r="D29">
         <v>3000000</v>
@@ -4308,13 +4305,13 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>7580</v>
+        <v>7453.823475007535</v>
       </c>
       <c r="D30">
         <v>750000</v>
@@ -4430,13 +4427,13 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>55</v>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>210000</v>
@@ -4552,7 +4549,7 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4674,13 +4671,13 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>2390</v>
+        <v>2860.874335573629</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4796,7 +4793,7 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4918,13 +4915,13 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1230</v>
+        <v>1223.631935023299</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -5040,13 +5037,13 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5162,13 +5159,13 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>7570</v>
+        <v>7500.041066630049</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5284,13 +5281,13 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5406,13 +5403,13 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>5790</v>
+        <v>5745.422744292303</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5514,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM39">
         <v>0</v>
@@ -5528,7 +5525,7 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5650,13 +5647,13 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>3650</v>
+        <v>3487.613616731733</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5772,13 +5769,13 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>2840</v>
+        <v>2634.85005236495</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5894,13 +5891,13 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>7590</v>
+        <v>7179.116970062444</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -6016,13 +6013,13 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44" t="s">
-        <v>55</v>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6138,13 +6135,13 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>2490</v>
+        <v>2887.250212489506</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6260,7 +6257,7 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6382,13 +6379,13 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1320</v>
+        <v>1299.811672673934</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6504,13 +6501,13 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6626,13 +6623,13 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>7340</v>
+        <v>7563.992777076393</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6748,13 +6745,13 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6870,13 +6867,13 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>6020</v>
+        <v>5955.175904294275</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6978,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="AL51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51">
         <v>0</v>
@@ -6992,7 +6989,7 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7114,13 +7111,13 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>3750</v>
+        <v>3405.472039138021</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7236,13 +7233,13 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>3030</v>
+        <v>2632.058233068435</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7358,13 +7355,13 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>7610</v>
+        <v>6978.952586250825</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7480,13 +7477,13 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56" t="s">
-        <v>55</v>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7602,13 +7599,13 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7724,13 +7721,13 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>2590</v>
+        <v>3008.669179463094</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7846,13 +7843,13 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>3230</v>
+        <v>2648.294169302945</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -7968,13 +7965,13 @@
     </row>
     <row r="60" spans="1:41">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D60">
         <v>330000</v>
@@ -8090,13 +8087,13 @@
     </row>
     <row r="61" spans="1:41">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>3460</v>
+        <v>3137.260298393558</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -8212,13 +8209,13 @@
     </row>
     <row r="62" spans="1:41">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -8320,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AL62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM62">
         <v>0</v>
@@ -8334,13 +8331,13 @@
     </row>
     <row r="63" spans="1:41">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>3830</v>
+        <v>3353.623382286602</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -8456,13 +8453,13 @@
     </row>
     <row r="64" spans="1:41">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>12090</v>
+        <v>10646.03446486957</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -8578,13 +8575,13 @@
     </row>
     <row r="65" spans="1:41">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>7500</v>
+        <v>6753.607115829548</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -8700,13 +8697,13 @@
     </row>
     <row r="66" spans="1:41">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>650</v>
+        <v>558.2093442539386</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -8822,13 +8819,13 @@
     </row>
     <row r="67" spans="1:41">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -8944,13 +8941,13 @@
     </row>
     <row r="68" spans="1:41">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>5780</v>
+        <v>4861.287098802361</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -9066,13 +9063,13 @@
     </row>
     <row r="69" spans="1:41">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -9188,13 +9185,13 @@
     </row>
     <row r="70" spans="1:41">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70" t="s">
-        <v>55</v>
+      <c r="C70">
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9310,7 +9307,7 @@
     </row>
     <row r="71" spans="1:41">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -9432,13 +9429,13 @@
     </row>
     <row r="72" spans="1:41">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -9554,13 +9551,13 @@
     </row>
     <row r="73" spans="1:41">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>2410</v>
+        <v>3012.536723186288</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -9676,13 +9673,13 @@
     </row>
     <row r="74" spans="1:41">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>3360</v>
+        <v>2703.742092148914</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -9798,13 +9795,13 @@
     </row>
     <row r="75" spans="1:41">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D75">
         <v>330000</v>
@@ -9920,13 +9917,13 @@
     </row>
     <row r="76" spans="1:41">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>3620</v>
+        <v>3210.869677115934</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -10042,13 +10039,13 @@
     </row>
     <row r="77" spans="1:41">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -10150,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="AL77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM77">
         <v>0</v>
@@ -10164,13 +10161,13 @@
     </row>
     <row r="78" spans="1:41">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>3870</v>
+        <v>3305.422815235401</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -10286,13 +10283,13 @@
     </row>
     <row r="79" spans="1:41">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>11420</v>
+        <v>10617.47465504905</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -10408,13 +10405,13 @@
     </row>
     <row r="80" spans="1:41">
       <c r="A80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>7290</v>
+        <v>6487.899081675427</v>
       </c>
       <c r="D80">
         <v>611130</v>
@@ -10530,13 +10527,13 @@
     </row>
     <row r="81" spans="1:41">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>600</v>
+        <v>579.0880693780265</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -10652,13 +10649,13 @@
     </row>
     <row r="82" spans="1:41">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -10774,13 +10771,13 @@
     </row>
     <row r="83" spans="1:41">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>5620</v>
+        <v>4944.191641077407</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -10896,13 +10893,13 @@
     </row>
     <row r="84" spans="1:41">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -11018,13 +11015,13 @@
     </row>
     <row r="85" spans="1:41">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
-      <c r="C85" t="s">
-        <v>55</v>
+      <c r="C85">
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -11140,7 +11137,7 @@
     </row>
     <row r="86" spans="1:41">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -11262,13 +11259,13 @@
     </row>
     <row r="87" spans="1:41">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87">
-        <v>660</v>
+        <v>514.0573067519859</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -11384,13 +11381,13 @@
     </row>
     <row r="88" spans="1:41">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>1690</v>
+        <v>1875.732161108182</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -11506,13 +11503,13 @@
     </row>
     <row r="89" spans="1:41">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>7250</v>
+        <v>6411.986543373589</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -11628,13 +11625,13 @@
     </row>
     <row r="90" spans="1:41">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
       <c r="C90">
-        <v>490</v>
+        <v>584.2111078769213</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -11750,13 +11747,13 @@
     </row>
     <row r="91" spans="1:41">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>5470</v>
+        <v>7476.621011558085</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11872,7 +11869,7 @@
     </row>
     <row r="92" spans="1:41">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -11994,13 +11991,13 @@
     </row>
     <row r="93" spans="1:41">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-      <c r="C93" t="s">
-        <v>55</v>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93">
         <v>0</v>

--- a/output/promoción social.xlsx
+++ b/output/promoción social.xlsx
@@ -1874,7 +1874,7 @@
         <v>752.7964806390332</v>
       </c>
       <c r="D10">
-        <v>308530</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>122179</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2696.92</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2235.045836135583</v>
       </c>
       <c r="D16">
         <v>655470</v>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>334.0215725731523</v>
       </c>
       <c r="D17">
         <v>3000000</v>
@@ -2969,10 +2969,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>345.2661148508273</v>
       </c>
       <c r="D19">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>500000</v>
@@ -3094,7 +3094,7 @@
         <v>2635.191563620458</v>
       </c>
       <c r="D20">
-        <v>961000</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>3587.183047009039</v>
       </c>
       <c r="D29">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>7453.823475007535</v>
       </c>
       <c r="D30">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>3373.49</v>
       </c>
       <c r="D31">
         <v>210000</v>
@@ -4555,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>2580.369788543324</v>
       </c>
       <c r="D32">
-        <v>5750000</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>988.4992779375814</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>2675.677541978231</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>4125.78</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6147,7 +6147,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>232930</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -6263,13 +6263,13 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1018.750753846855</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -6391,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>202433</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>10000</v>
+        <v>425681</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>3631</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>50000</v>
+        <v>482160</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -6879,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>26000</v>
+        <v>99633</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -6995,13 +6995,13 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>2670.127177203784</v>
       </c>
       <c r="D52">
         <v>218840</v>
       </c>
       <c r="E52">
-        <v>968795</v>
+        <v>3036245</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>322759.5</v>
+        <v>1081112</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>100876.95</v>
+        <v>485821</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7367,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>155618.5</v>
+        <v>416666</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7483,13 +7483,13 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1526.54</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>120719</v>
+        <v>484106</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1366.25</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2603.521013626997</v>
       </c>
       <c r="D71">
         <v>2761935</v>
@@ -9441,7 +9441,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>113826.5</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -9563,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>300000</v>
+        <v>232930</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>75000</v>
+        <v>100876.95</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -9798,16 +9798,16 @@
         <v>114</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>482.6390663355013</v>
       </c>
       <c r="D75">
-        <v>330000</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>107500</v>
+        <v>10000</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>69290</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -10042,7 +10042,7 @@
         <v>116</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>729.1196658666737</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>80023.5</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -10173,7 +10173,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>476977</v>
+        <v>322759.5</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -10295,7 +10295,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -10417,7 +10417,7 @@
         <v>611130</v>
       </c>
       <c r="E80">
-        <v>404312.5</v>
+        <v>155618.5</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>120</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>579.0880693780265</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>55000</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -10783,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>51425</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -11021,13 +11021,13 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1404.51</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85">
-        <v>75000</v>
+        <v>120719</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -11143,13 +11143,13 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>2631.811984847832</v>
       </c>
       <c r="D86">
         <v>329620</v>
       </c>
       <c r="E86">
-        <v>614415.5</v>
+        <v>968795</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -11875,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>2694.5225262147</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -11997,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>10984</v>
       </c>
       <c r="D93">
         <v>0</v>
